--- a/Data/pixels.xlsx
+++ b/Data/pixels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\legoj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bense\Documents\School\Grad School\Mines\Spring 2022\Machine Learning\CSCI575-Final-Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB9EE65-2450-430A-970F-A3E9E0375F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A8E62F-F745-4BEE-B8C7-52DE0BEBE915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="1755" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,12 +73,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,8 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,18 +385,18 @@
   <dimension ref="A1:H401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -426,7 +433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -446,7 +453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -466,7 +473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -486,7 +493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -506,7 +513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -526,7 +533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -540,7 +547,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -554,7 +561,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -568,7 +575,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -582,7 +589,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -596,7 +603,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -610,7 +617,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -624,7 +631,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
@@ -638,7 +645,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -652,7 +659,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1</v>
       </c>
@@ -666,7 +673,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1</v>
       </c>
@@ -680,7 +687,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1</v>
       </c>
@@ -694,7 +701,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1</v>
       </c>
@@ -708,7 +715,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1</v>
       </c>
@@ -722,7 +729,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -736,7 +743,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1</v>
       </c>
@@ -750,7 +757,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1</v>
       </c>
@@ -764,7 +771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1</v>
       </c>
@@ -778,7 +785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1</v>
       </c>
@@ -792,7 +799,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1</v>
       </c>
@@ -806,7 +813,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1</v>
       </c>
@@ -820,7 +827,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1</v>
       </c>
@@ -834,7 +841,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1</v>
       </c>
@@ -848,7 +855,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1</v>
       </c>
@@ -862,49 +869,58 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
+        <v>445</v>
+      </c>
+      <c r="D32" s="1">
         <v>622</v>
       </c>
-      <c r="D32">
+      <c r="E32" s="1">
         <v>445</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
+        <v>473</v>
+      </c>
+      <c r="D33" s="1">
         <v>574</v>
       </c>
-      <c r="D33">
+      <c r="E33" s="1">
         <v>473</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
+        <v>421</v>
+      </c>
+      <c r="D34" s="1">
         <v>537</v>
       </c>
-      <c r="D34">
+      <c r="E34" s="1">
         <v>421</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1</v>
       </c>
@@ -918,7 +934,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1</v>
       </c>
@@ -932,7 +948,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1</v>
       </c>
@@ -946,7 +962,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1</v>
       </c>
@@ -960,7 +976,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1</v>
       </c>
@@ -974,7 +990,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1</v>
       </c>
@@ -988,7 +1004,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1002,7 +1018,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1016,7 +1032,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1030,7 +1046,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1044,7 +1060,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1058,7 +1074,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1072,7 +1088,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1086,7 +1102,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1100,7 +1116,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1114,7 +1130,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1128,7 +1144,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1142,7 +1158,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1156,7 +1172,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>2</v>
       </c>
@@ -1170,7 +1186,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1184,7 +1200,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>2</v>
       </c>
@@ -1198,7 +1214,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>2</v>
       </c>
@@ -1212,7 +1228,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1226,7 +1242,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>2</v>
       </c>
@@ -1240,7 +1256,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1254,7 +1270,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1268,7 +1284,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2</v>
       </c>
@@ -1282,7 +1298,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2</v>
       </c>
@@ -1296,7 +1312,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>2</v>
       </c>
@@ -1310,7 +1326,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>2</v>
       </c>
@@ -1324,7 +1340,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>2</v>
       </c>
@@ -1338,7 +1354,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>2</v>
       </c>
@@ -1352,7 +1368,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>2</v>
       </c>
@@ -1366,7 +1382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>2</v>
       </c>
@@ -1380,7 +1396,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>2</v>
       </c>
@@ -1394,7 +1410,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>2</v>
       </c>
@@ -1408,7 +1424,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>2</v>
       </c>
@@ -1422,7 +1438,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>2</v>
       </c>
@@ -1436,7 +1452,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>2</v>
       </c>
@@ -1450,7 +1466,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>2</v>
       </c>
@@ -1464,7 +1480,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>2</v>
       </c>
@@ -1478,7 +1494,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>2</v>
       </c>
@@ -1492,7 +1508,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>2</v>
       </c>
@@ -1506,7 +1522,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>2</v>
       </c>
@@ -1520,7 +1536,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>2</v>
       </c>
@@ -1534,7 +1550,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>2</v>
       </c>
@@ -1548,7 +1564,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>2</v>
       </c>
@@ -1562,7 +1578,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>3</v>
       </c>
@@ -1576,7 +1592,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>3</v>
       </c>
@@ -1590,7 +1606,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>3</v>
       </c>
@@ -1604,7 +1620,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>3</v>
       </c>
@@ -1618,7 +1634,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>3</v>
       </c>
@@ -1632,7 +1648,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>3</v>
       </c>
@@ -1646,7 +1662,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>3</v>
       </c>
@@ -1660,7 +1676,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>3</v>
       </c>
@@ -1674,7 +1690,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>3</v>
       </c>
@@ -1688,7 +1704,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>3</v>
       </c>
@@ -1702,7 +1718,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>3</v>
       </c>
@@ -1716,7 +1732,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>3</v>
       </c>
@@ -1730,7 +1746,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>3</v>
       </c>
@@ -1744,7 +1760,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>3</v>
       </c>
@@ -1758,7 +1774,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>3</v>
       </c>
@@ -1772,7 +1788,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>3</v>
       </c>
@@ -1786,7 +1802,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>3</v>
       </c>
@@ -1800,7 +1816,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>3</v>
       </c>
@@ -1814,7 +1830,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>3</v>
       </c>
@@ -1828,7 +1844,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>3</v>
       </c>
@@ -1842,7 +1858,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>3</v>
       </c>
@@ -1856,7 +1872,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>3</v>
       </c>
@@ -1870,7 +1886,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>3</v>
       </c>
@@ -1884,7 +1900,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>3</v>
       </c>
@@ -1898,7 +1914,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>3</v>
       </c>
@@ -1912,7 +1928,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>3</v>
       </c>
@@ -1926,7 +1942,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>3</v>
       </c>
@@ -1940,7 +1956,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>3</v>
       </c>
@@ -1954,7 +1970,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>3</v>
       </c>
@@ -1968,7 +1984,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>3</v>
       </c>
@@ -1982,7 +1998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>3</v>
       </c>
@@ -1996,7 +2012,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>3</v>
       </c>
@@ -2010,7 +2026,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>3</v>
       </c>
@@ -2024,7 +2040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>3</v>
       </c>
@@ -2038,7 +2054,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>3</v>
       </c>
@@ -2052,7 +2068,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>3</v>
       </c>
@@ -2066,7 +2082,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>3</v>
       </c>
@@ -2080,7 +2096,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>3</v>
       </c>
@@ -2094,7 +2110,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>3</v>
       </c>
@@ -2108,7 +2124,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>3</v>
       </c>
@@ -2122,7 +2138,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>4</v>
       </c>
@@ -2136,7 +2152,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>4</v>
       </c>
@@ -2150,7 +2166,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>4</v>
       </c>
@@ -2164,7 +2180,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>4</v>
       </c>
@@ -2178,7 +2194,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>4</v>
       </c>
@@ -2192,7 +2208,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>4</v>
       </c>
@@ -2206,7 +2222,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>4</v>
       </c>
@@ -2220,7 +2236,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>4</v>
       </c>
@@ -2234,7 +2250,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>4</v>
       </c>
@@ -2248,7 +2264,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>4</v>
       </c>
@@ -2262,7 +2278,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>4</v>
       </c>
@@ -2276,7 +2292,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>4</v>
       </c>
@@ -2290,7 +2306,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>4</v>
       </c>
@@ -2304,7 +2320,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>4</v>
       </c>
@@ -2318,7 +2334,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>4</v>
       </c>
@@ -2332,7 +2348,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>4</v>
       </c>
@@ -2346,7 +2362,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>4</v>
       </c>
@@ -2360,7 +2376,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>4</v>
       </c>
@@ -2374,7 +2390,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>4</v>
       </c>
@@ -2388,7 +2404,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>4</v>
       </c>
@@ -2402,7 +2418,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>4</v>
       </c>
@@ -2416,7 +2432,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>4</v>
       </c>
@@ -2430,7 +2446,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>4</v>
       </c>
@@ -2444,7 +2460,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>4</v>
       </c>
@@ -2458,7 +2474,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>4</v>
       </c>
@@ -2472,7 +2488,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>4</v>
       </c>
@@ -2486,7 +2502,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>4</v>
       </c>
@@ -2500,7 +2516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>4</v>
       </c>
@@ -2514,7 +2530,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>4</v>
       </c>
@@ -2528,7 +2544,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>4</v>
       </c>
@@ -2542,7 +2558,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>4</v>
       </c>
@@ -2556,7 +2572,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>4</v>
       </c>
@@ -2570,7 +2586,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>4</v>
       </c>
@@ -2584,7 +2600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>4</v>
       </c>
@@ -2598,7 +2614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>4</v>
       </c>
@@ -2612,7 +2628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>4</v>
       </c>
@@ -2626,7 +2642,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>4</v>
       </c>
@@ -2640,7 +2656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>4</v>
       </c>
@@ -2654,7 +2670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>4</v>
       </c>
@@ -2668,7 +2684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>4</v>
       </c>
@@ -2682,7 +2698,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>5</v>
       </c>
@@ -2696,7 +2712,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>5</v>
       </c>
@@ -2710,7 +2726,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>5</v>
       </c>
@@ -2724,7 +2740,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>5</v>
       </c>
@@ -2738,7 +2754,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>5</v>
       </c>
@@ -2752,7 +2768,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>5</v>
       </c>
@@ -2766,7 +2782,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>5</v>
       </c>
@@ -2780,7 +2796,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>5</v>
       </c>
@@ -2794,7 +2810,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>5</v>
       </c>
@@ -2808,7 +2824,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>5</v>
       </c>
@@ -2822,7 +2838,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>5</v>
       </c>
@@ -2836,7 +2852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>5</v>
       </c>
@@ -2850,7 +2866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>5</v>
       </c>
@@ -2864,7 +2880,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>5</v>
       </c>
@@ -2878,7 +2894,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>5</v>
       </c>
@@ -2892,7 +2908,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>5</v>
       </c>
@@ -2906,7 +2922,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>5</v>
       </c>
@@ -2920,7 +2936,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>5</v>
       </c>
@@ -2934,7 +2950,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>5</v>
       </c>
@@ -2948,7 +2964,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>5</v>
       </c>
@@ -2962,7 +2978,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>5</v>
       </c>
@@ -2976,7 +2992,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>5</v>
       </c>
@@ -2990,7 +3006,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>5</v>
       </c>
@@ -3004,7 +3020,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>5</v>
       </c>
@@ -3018,7 +3034,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>5</v>
       </c>
@@ -3032,7 +3048,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>5</v>
       </c>
@@ -3046,7 +3062,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>5</v>
       </c>
@@ -3060,7 +3076,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>5</v>
       </c>
@@ -3074,7 +3090,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>5</v>
       </c>
@@ -3088,7 +3104,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>5</v>
       </c>
@@ -3102,7 +3118,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>5</v>
       </c>
@@ -3116,7 +3132,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>5</v>
       </c>
@@ -3130,7 +3146,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>5</v>
       </c>
@@ -3144,7 +3160,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>5</v>
       </c>
@@ -3158,7 +3174,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>5</v>
       </c>
@@ -3172,7 +3188,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>5</v>
       </c>
@@ -3186,7 +3202,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>5</v>
       </c>
@@ -3200,7 +3216,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>5</v>
       </c>
@@ -3214,7 +3230,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>5</v>
       </c>
@@ -3228,7 +3244,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>5</v>
       </c>
@@ -3242,7 +3258,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>6</v>
       </c>
@@ -3256,7 +3272,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>6</v>
       </c>
@@ -3270,7 +3286,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>6</v>
       </c>
@@ -3284,7 +3300,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>6</v>
       </c>
@@ -3298,7 +3314,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>6</v>
       </c>
@@ -3312,7 +3328,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>6</v>
       </c>
@@ -3326,7 +3342,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>6</v>
       </c>
@@ -3340,7 +3356,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>6</v>
       </c>
@@ -3354,7 +3370,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>6</v>
       </c>
@@ -3368,7 +3384,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>6</v>
       </c>
@@ -3382,7 +3398,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>6</v>
       </c>
@@ -3396,7 +3412,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>6</v>
       </c>
@@ -3410,7 +3426,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>6</v>
       </c>
@@ -3424,7 +3440,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>6</v>
       </c>
@@ -3438,7 +3454,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>6</v>
       </c>
@@ -3452,7 +3468,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>6</v>
       </c>
@@ -3466,7 +3482,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>6</v>
       </c>
@@ -3480,7 +3496,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>6</v>
       </c>
@@ -3494,7 +3510,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>6</v>
       </c>
@@ -3508,7 +3524,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>6</v>
       </c>
@@ -3522,7 +3538,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>6</v>
       </c>
@@ -3536,7 +3552,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>6</v>
       </c>
@@ -3550,7 +3566,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>6</v>
       </c>
@@ -3564,7 +3580,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>6</v>
       </c>
@@ -3578,7 +3594,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>6</v>
       </c>
@@ -3592,7 +3608,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>6</v>
       </c>
@@ -3606,7 +3622,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>6</v>
       </c>
@@ -3620,7 +3636,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>6</v>
       </c>
@@ -3634,7 +3650,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>6</v>
       </c>
@@ -3648,7 +3664,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>6</v>
       </c>
@@ -3662,7 +3678,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>6</v>
       </c>
@@ -3676,7 +3692,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>6</v>
       </c>
@@ -3690,7 +3706,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>6</v>
       </c>
@@ -3704,7 +3720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>6</v>
       </c>
@@ -3718,7 +3734,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>6</v>
       </c>
@@ -3732,7 +3748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>6</v>
       </c>
@@ -3746,7 +3762,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>6</v>
       </c>
@@ -3760,7 +3776,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>6</v>
       </c>
@@ -3774,7 +3790,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>6</v>
       </c>
@@ -3788,7 +3804,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>6</v>
       </c>
@@ -3802,7 +3818,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>7</v>
       </c>
@@ -3816,7 +3832,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>7</v>
       </c>
@@ -3830,7 +3846,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>7</v>
       </c>
@@ -3844,7 +3860,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>7</v>
       </c>
@@ -3858,7 +3874,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>7</v>
       </c>
@@ -3872,7 +3888,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>7</v>
       </c>
@@ -3886,7 +3902,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>7</v>
       </c>
@@ -3900,7 +3916,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>7</v>
       </c>
@@ -3914,7 +3930,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>7</v>
       </c>
@@ -3928,7 +3944,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>7</v>
       </c>
@@ -3942,7 +3958,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>7</v>
       </c>
@@ -3956,7 +3972,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>7</v>
       </c>
@@ -3970,7 +3986,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>7</v>
       </c>
@@ -3984,7 +4000,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>7</v>
       </c>
@@ -3998,7 +4014,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>7</v>
       </c>
@@ -4012,7 +4028,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>7</v>
       </c>
@@ -4026,7 +4042,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>7</v>
       </c>
@@ -4040,7 +4056,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>7</v>
       </c>
@@ -4054,7 +4070,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>7</v>
       </c>
@@ -4068,7 +4084,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>7</v>
       </c>
@@ -4082,7 +4098,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>7</v>
       </c>
@@ -4096,7 +4112,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>7</v>
       </c>
@@ -4110,7 +4126,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>7</v>
       </c>
@@ -4124,7 +4140,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>7</v>
       </c>
@@ -4138,7 +4154,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>7</v>
       </c>
@@ -4152,7 +4168,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>7</v>
       </c>
@@ -4166,7 +4182,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>7</v>
       </c>
@@ -4180,7 +4196,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>7</v>
       </c>
@@ -4194,7 +4210,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>7</v>
       </c>
@@ -4208,7 +4224,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>7</v>
       </c>
@@ -4222,7 +4238,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>7</v>
       </c>
@@ -4236,7 +4252,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>7</v>
       </c>
@@ -4250,7 +4266,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>7</v>
       </c>
@@ -4264,7 +4280,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>7</v>
       </c>
@@ -4278,7 +4294,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>7</v>
       </c>
@@ -4292,7 +4308,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>7</v>
       </c>
@@ -4306,7 +4322,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>7</v>
       </c>
@@ -4320,7 +4336,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>7</v>
       </c>
@@ -4334,7 +4350,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>7</v>
       </c>
@@ -4348,7 +4364,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>7</v>
       </c>
@@ -4362,7 +4378,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>8</v>
       </c>
@@ -4376,7 +4392,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>8</v>
       </c>
@@ -4390,7 +4406,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>8</v>
       </c>
@@ -4404,7 +4420,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>8</v>
       </c>
@@ -4418,7 +4434,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>8</v>
       </c>
@@ -4432,7 +4448,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>8</v>
       </c>
@@ -4446,7 +4462,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>8</v>
       </c>
@@ -4460,7 +4476,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>8</v>
       </c>
@@ -4474,7 +4490,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>8</v>
       </c>
@@ -4488,7 +4504,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>8</v>
       </c>
@@ -4502,7 +4518,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>8</v>
       </c>
@@ -4516,7 +4532,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>8</v>
       </c>
@@ -4530,7 +4546,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>8</v>
       </c>
@@ -4544,7 +4560,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>8</v>
       </c>
@@ -4558,7 +4574,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>8</v>
       </c>
@@ -4572,7 +4588,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>8</v>
       </c>
@@ -4586,7 +4602,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>8</v>
       </c>
@@ -4600,7 +4616,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>8</v>
       </c>
@@ -4614,7 +4630,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>8</v>
       </c>
@@ -4628,7 +4644,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>8</v>
       </c>
@@ -4642,7 +4658,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>8</v>
       </c>
@@ -4656,7 +4672,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>8</v>
       </c>
@@ -4670,7 +4686,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>8</v>
       </c>
@@ -4684,7 +4700,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>8</v>
       </c>
@@ -4698,7 +4714,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>8</v>
       </c>
@@ -4712,7 +4728,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>8</v>
       </c>
@@ -4726,7 +4742,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>8</v>
       </c>
@@ -4740,7 +4756,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>8</v>
       </c>
@@ -4754,7 +4770,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>8</v>
       </c>
@@ -4768,7 +4784,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>8</v>
       </c>
@@ -4782,7 +4798,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>8</v>
       </c>
@@ -4796,7 +4812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>8</v>
       </c>
@@ -4810,7 +4826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>8</v>
       </c>
@@ -4824,7 +4840,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>8</v>
       </c>
@@ -4838,7 +4854,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>8</v>
       </c>
@@ -4852,7 +4868,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>8</v>
       </c>
@@ -4866,7 +4882,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>8</v>
       </c>
@@ -4880,7 +4896,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>8</v>
       </c>
@@ -4894,7 +4910,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>8</v>
       </c>
@@ -4908,7 +4924,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>8</v>
       </c>
@@ -4922,7 +4938,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>9</v>
       </c>
@@ -4936,7 +4952,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>9</v>
       </c>
@@ -4950,7 +4966,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>9</v>
       </c>
@@ -4964,7 +4980,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>9</v>
       </c>
@@ -4978,7 +4994,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>9</v>
       </c>
@@ -4992,7 +5008,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>9</v>
       </c>
@@ -5006,7 +5022,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>9</v>
       </c>
@@ -5020,7 +5036,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>9</v>
       </c>
@@ -5034,7 +5050,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>9</v>
       </c>
@@ -5048,7 +5064,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>9</v>
       </c>
@@ -5062,7 +5078,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>9</v>
       </c>
@@ -5076,7 +5092,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>9</v>
       </c>
@@ -5090,7 +5106,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>9</v>
       </c>
@@ -5104,7 +5120,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>9</v>
       </c>
@@ -5118,7 +5134,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>9</v>
       </c>
@@ -5132,7 +5148,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>9</v>
       </c>
@@ -5146,7 +5162,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>9</v>
       </c>
@@ -5160,7 +5176,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>9</v>
       </c>
@@ -5174,7 +5190,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>9</v>
       </c>
@@ -5188,7 +5204,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>9</v>
       </c>
@@ -5202,7 +5218,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>9</v>
       </c>
@@ -5216,7 +5232,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>9</v>
       </c>
@@ -5230,7 +5246,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>9</v>
       </c>
@@ -5244,7 +5260,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>9</v>
       </c>
@@ -5258,7 +5274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>9</v>
       </c>
@@ -5272,7 +5288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>9</v>
       </c>
@@ -5286,7 +5302,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>9</v>
       </c>
@@ -5300,7 +5316,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>9</v>
       </c>
@@ -5314,7 +5330,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>9</v>
       </c>
@@ -5328,7 +5344,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>9</v>
       </c>
@@ -5342,7 +5358,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>9</v>
       </c>
@@ -5356,7 +5372,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>9</v>
       </c>
@@ -5370,7 +5386,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>9</v>
       </c>
@@ -5384,7 +5400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>9</v>
       </c>
@@ -5398,7 +5414,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>9</v>
       </c>
@@ -5412,7 +5428,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>9</v>
       </c>
@@ -5426,7 +5442,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>9</v>
       </c>
@@ -5440,7 +5456,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>9</v>
       </c>
@@ -5454,7 +5470,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>9</v>
       </c>
@@ -5468,7 +5484,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>9</v>
       </c>
@@ -5482,7 +5498,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>10</v>
       </c>
@@ -5496,7 +5512,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>10</v>
       </c>
@@ -5510,7 +5526,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>10</v>
       </c>
@@ -5524,7 +5540,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>10</v>
       </c>
@@ -5538,7 +5554,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>10</v>
       </c>
@@ -5552,7 +5568,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>10</v>
       </c>
@@ -5566,7 +5582,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>10</v>
       </c>
@@ -5580,7 +5596,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>10</v>
       </c>
@@ -5594,7 +5610,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>10</v>
       </c>
@@ -5608,7 +5624,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>10</v>
       </c>
@@ -5622,7 +5638,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>10</v>
       </c>
@@ -5636,7 +5652,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>10</v>
       </c>
@@ -5650,7 +5666,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>10</v>
       </c>
@@ -5664,7 +5680,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>10</v>
       </c>
@@ -5678,7 +5694,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>10</v>
       </c>
@@ -5692,7 +5708,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>10</v>
       </c>
@@ -5706,7 +5722,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>10</v>
       </c>
@@ -5720,7 +5736,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>10</v>
       </c>
@@ -5734,7 +5750,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>10</v>
       </c>
@@ -5748,7 +5764,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>10</v>
       </c>
@@ -5762,7 +5778,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>10</v>
       </c>
@@ -5776,7 +5792,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>10</v>
       </c>
@@ -5790,7 +5806,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>10</v>
       </c>
@@ -5804,7 +5820,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>10</v>
       </c>
@@ -5818,7 +5834,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>10</v>
       </c>
@@ -5832,7 +5848,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>10</v>
       </c>
@@ -5846,7 +5862,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>10</v>
       </c>
@@ -5860,7 +5876,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>10</v>
       </c>
@@ -5874,7 +5890,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>10</v>
       </c>
@@ -5888,7 +5904,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>10</v>
       </c>
@@ -5902,7 +5918,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>10</v>
       </c>
@@ -5916,7 +5932,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>10</v>
       </c>
@@ -5930,7 +5946,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>10</v>
       </c>
@@ -5944,7 +5960,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>10</v>
       </c>
@@ -5958,7 +5974,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>10</v>
       </c>
@@ -5972,7 +5988,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>10</v>
       </c>
@@ -5986,7 +6002,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>10</v>
       </c>
@@ -6000,7 +6016,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>10</v>
       </c>
@@ -6014,7 +6030,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>10</v>
       </c>
@@ -6028,7 +6044,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>10</v>
       </c>
